--- a/build/website/ValueSet-nmdp-race-codes.xlsx
+++ b/build/website/ValueSet-nmdp-race-codes.xlsx
@@ -36,13 +36,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>NMDPRaceCodes</t>
+    <t>NMDPRaceVS</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>NMDP Race Code Value Set</t>
+    <t>NMDP Race Value Set</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T09:36:20-05:00</t>
+    <t>2022-05-26T13:36:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>NMDP Race Codes</t>
+    <t>NMDP race codes</t>
   </si>
   <si>
     <t>Purpose</t>
